--- a/biology/Écologie/Potamon_(hydrologie)/Potamon_(hydrologie).xlsx
+++ b/biology/Écologie/Potamon_(hydrologie)/Potamon_(hydrologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En hydrologie et limnologie, le potamon (du grec potamos, « rivière ») est la partie inférieure des cours d'eau. Il complète le crénon (zone des sources d'eau et de leurs émissaires) et le rhitron (partie supérieure).
-Ces termes sont introduits par Illies et Botosaneanu qui basent la zonation longitudinale des cours sur la distribution spatiale des invertébrés benthiques[1].
-Ils sont utilisés pour différencier d'autres zoocénoses et phytocénoses (macrophytes)[2].
+Ces termes sont introduits par Illies et Botosaneanu qui basent la zonation longitudinale des cours sur la distribution spatiale des invertébrés benthiques.
+Ils sont utilisés pour différencier d'autres zoocénoses et phytocénoses (macrophytes).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Importante turbidité
 Un transport important de sédiments fins et de matières organiques en fines particules
